--- a/artfynd/A 47294-2023 artfynd.xlsx
+++ b/artfynd/A 47294-2023 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>130965937</v>
       </c>
       <c r="B2" t="n">
-        <v>98926</v>
+        <v>98930</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         <v>130965950</v>
       </c>
       <c r="B3" t="n">
-        <v>98926</v>
+        <v>98930</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
         <v>130965952</v>
       </c>
       <c r="B4" t="n">
-        <v>98926</v>
+        <v>98930</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -989,7 +989,7 @@
         <v>130965930</v>
       </c>
       <c r="B5" t="n">
-        <v>98926</v>
+        <v>98930</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1091,7 +1091,7 @@
         <v>130965940</v>
       </c>
       <c r="B6" t="n">
-        <v>98926</v>
+        <v>98930</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1193,7 +1193,7 @@
         <v>130965938</v>
       </c>
       <c r="B7" t="n">
-        <v>98926</v>
+        <v>98930</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         <v>130965931</v>
       </c>
       <c r="B8" t="n">
-        <v>98926</v>
+        <v>98930</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         <v>130965953</v>
       </c>
       <c r="B9" t="n">
-        <v>98926</v>
+        <v>98930</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1499,7 +1499,7 @@
         <v>130965848</v>
       </c>
       <c r="B10" t="n">
-        <v>98926</v>
+        <v>98930</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1598,32 +1598,32 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130965861</v>
+        <v>130965935</v>
       </c>
       <c r="B11" t="n">
-        <v>98926</v>
+        <v>79243</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>219790</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1633,10 +1633,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>497138</v>
+        <v>496969</v>
       </c>
       <c r="R11" t="n">
-        <v>6713448</v>
+        <v>6713674</v>
       </c>
       <c r="S11" t="n">
         <v>15</v>
@@ -1673,7 +1673,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>Betydelsefulla förekomster . inventering åt vasa vind</t>
+          <t>Måttlig förekomst . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1693,39 +1693,39 @@
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Anders Esplund, Pia Edfors, Enviro Planning</t>
+          <t>Pia Edfors, Enviro Planning</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130965935</v>
+        <v>130965861</v>
       </c>
       <c r="B12" t="n">
-        <v>79239</v>
+        <v>98930</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>219790</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1735,10 +1735,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>496969</v>
+        <v>497138</v>
       </c>
       <c r="R12" t="n">
-        <v>6713674</v>
+        <v>6713448</v>
       </c>
       <c r="S12" t="n">
         <v>15</v>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>Måttlig förekomst . inventering åt vasa vind</t>
+          <t>Betydelsefulla förekomster . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1795,7 +1795,7 @@
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Pia Edfors, Enviro Planning</t>
+          <t>Anders Esplund, Pia Edfors, Enviro Planning</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
@@ -1805,7 +1805,7 @@
         <v>130965951</v>
       </c>
       <c r="B13" t="n">
-        <v>98926</v>
+        <v>98930</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>130965932</v>
       </c>
       <c r="B14" t="n">
-        <v>98926</v>
+        <v>98930</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>

--- a/artfynd/A 47294-2023 artfynd.xlsx
+++ b/artfynd/A 47294-2023 artfynd.xlsx
@@ -986,7 +986,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130965930</v>
+        <v>130965940</v>
       </c>
       <c r="B5" t="n">
         <v>98930</v>
@@ -1021,10 +1021,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>496938</v>
+        <v>496969</v>
       </c>
       <c r="R5" t="n">
-        <v>6713359</v>
+        <v>6713529</v>
       </c>
       <c r="S5" t="n">
         <v>15</v>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Måttlig förekomst . inventering åt vasa vind</t>
+          <t>Betydelsefulla förekomster . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1081,14 +1081,14 @@
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Pia Edfors, Enviro Planning</t>
+          <t>Pia Edfors, Anders Esplund, Enviro Planning</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130965940</v>
+        <v>130965930</v>
       </c>
       <c r="B6" t="n">
         <v>98930</v>
@@ -1123,10 +1123,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>496969</v>
+        <v>496938</v>
       </c>
       <c r="R6" t="n">
-        <v>6713529</v>
+        <v>6713359</v>
       </c>
       <c r="S6" t="n">
         <v>15</v>
@@ -1163,7 +1163,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Betydelsefulla förekomster . inventering åt vasa vind</t>
+          <t>Måttlig förekomst . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Pia Edfors, Anders Esplund, Enviro Planning</t>
+          <t>Pia Edfors, Enviro Planning</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
@@ -1598,32 +1598,32 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130965935</v>
+        <v>130965861</v>
       </c>
       <c r="B11" t="n">
-        <v>79243</v>
+        <v>98930</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>219790</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1633,10 +1633,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>496969</v>
+        <v>497138</v>
       </c>
       <c r="R11" t="n">
-        <v>6713674</v>
+        <v>6713448</v>
       </c>
       <c r="S11" t="n">
         <v>15</v>
@@ -1673,7 +1673,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>Måttlig förekomst . inventering åt vasa vind</t>
+          <t>Betydelsefulla förekomster . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1693,39 +1693,39 @@
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Pia Edfors, Enviro Planning</t>
+          <t>Anders Esplund, Pia Edfors, Enviro Planning</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130965861</v>
+        <v>130965935</v>
       </c>
       <c r="B12" t="n">
-        <v>98930</v>
+        <v>79243</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>219790</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1735,10 +1735,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>497138</v>
+        <v>496969</v>
       </c>
       <c r="R12" t="n">
-        <v>6713448</v>
+        <v>6713674</v>
       </c>
       <c r="S12" t="n">
         <v>15</v>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>Betydelsefulla förekomster . inventering åt vasa vind</t>
+          <t>Måttlig förekomst . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1795,7 +1795,7 @@
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Anders Esplund, Pia Edfors, Enviro Planning</t>
+          <t>Pia Edfors, Enviro Planning</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>

--- a/artfynd/A 47294-2023 artfynd.xlsx
+++ b/artfynd/A 47294-2023 artfynd.xlsx
@@ -986,7 +986,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130965940</v>
+        <v>130965930</v>
       </c>
       <c r="B5" t="n">
         <v>98930</v>
@@ -1021,10 +1021,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>496969</v>
+        <v>496938</v>
       </c>
       <c r="R5" t="n">
-        <v>6713529</v>
+        <v>6713359</v>
       </c>
       <c r="S5" t="n">
         <v>15</v>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Betydelsefulla förekomster . inventering åt vasa vind</t>
+          <t>Måttlig förekomst . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1081,14 +1081,14 @@
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Pia Edfors, Anders Esplund, Enviro Planning</t>
+          <t>Pia Edfors, Enviro Planning</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130965930</v>
+        <v>130965940</v>
       </c>
       <c r="B6" t="n">
         <v>98930</v>
@@ -1123,10 +1123,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>496938</v>
+        <v>496969</v>
       </c>
       <c r="R6" t="n">
-        <v>6713359</v>
+        <v>6713529</v>
       </c>
       <c r="S6" t="n">
         <v>15</v>
@@ -1163,7 +1163,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Måttlig förekomst . inventering åt vasa vind</t>
+          <t>Betydelsefulla förekomster . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Pia Edfors, Enviro Planning</t>
+          <t>Pia Edfors, Anders Esplund, Enviro Planning</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
@@ -1598,32 +1598,32 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130965861</v>
+        <v>130965935</v>
       </c>
       <c r="B11" t="n">
-        <v>98930</v>
+        <v>79243</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>219790</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1633,10 +1633,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>497138</v>
+        <v>496969</v>
       </c>
       <c r="R11" t="n">
-        <v>6713448</v>
+        <v>6713674</v>
       </c>
       <c r="S11" t="n">
         <v>15</v>
@@ -1673,7 +1673,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>Betydelsefulla förekomster . inventering åt vasa vind</t>
+          <t>Måttlig förekomst . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1693,39 +1693,39 @@
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Anders Esplund, Pia Edfors, Enviro Planning</t>
+          <t>Pia Edfors, Enviro Planning</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130965935</v>
+        <v>130965861</v>
       </c>
       <c r="B12" t="n">
-        <v>79243</v>
+        <v>98930</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>219790</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1735,10 +1735,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>496969</v>
+        <v>497138</v>
       </c>
       <c r="R12" t="n">
-        <v>6713674</v>
+        <v>6713448</v>
       </c>
       <c r="S12" t="n">
         <v>15</v>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>Måttlig förekomst . inventering åt vasa vind</t>
+          <t>Betydelsefulla förekomster . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1795,7 +1795,7 @@
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Pia Edfors, Enviro Planning</t>
+          <t>Anders Esplund, Pia Edfors, Enviro Planning</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>

--- a/artfynd/A 47294-2023 artfynd.xlsx
+++ b/artfynd/A 47294-2023 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>130965937</v>
       </c>
       <c r="B2" t="n">
-        <v>98930</v>
+        <v>98931</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         <v>130965950</v>
       </c>
       <c r="B3" t="n">
-        <v>98930</v>
+        <v>98931</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
         <v>130965952</v>
       </c>
       <c r="B4" t="n">
-        <v>98930</v>
+        <v>98931</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -989,7 +989,7 @@
         <v>130965930</v>
       </c>
       <c r="B5" t="n">
-        <v>98930</v>
+        <v>98931</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1091,7 +1091,7 @@
         <v>130965940</v>
       </c>
       <c r="B6" t="n">
-        <v>98930</v>
+        <v>98931</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1193,7 +1193,7 @@
         <v>130965938</v>
       </c>
       <c r="B7" t="n">
-        <v>98930</v>
+        <v>98931</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         <v>130965931</v>
       </c>
       <c r="B8" t="n">
-        <v>98930</v>
+        <v>98931</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         <v>130965953</v>
       </c>
       <c r="B9" t="n">
-        <v>98930</v>
+        <v>98931</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1499,7 +1499,7 @@
         <v>130965848</v>
       </c>
       <c r="B10" t="n">
-        <v>98930</v>
+        <v>98931</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1598,32 +1598,32 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130965935</v>
+        <v>130965861</v>
       </c>
       <c r="B11" t="n">
-        <v>79243</v>
+        <v>98931</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>219790</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1633,10 +1633,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>496969</v>
+        <v>497138</v>
       </c>
       <c r="R11" t="n">
-        <v>6713674</v>
+        <v>6713448</v>
       </c>
       <c r="S11" t="n">
         <v>15</v>
@@ -1673,7 +1673,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>Måttlig förekomst . inventering åt vasa vind</t>
+          <t>Betydelsefulla förekomster . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1693,39 +1693,39 @@
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Pia Edfors, Enviro Planning</t>
+          <t>Anders Esplund, Pia Edfors, Enviro Planning</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130965861</v>
+        <v>130965935</v>
       </c>
       <c r="B12" t="n">
-        <v>98930</v>
+        <v>79244</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>219790</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1735,10 +1735,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>497138</v>
+        <v>496969</v>
       </c>
       <c r="R12" t="n">
-        <v>6713448</v>
+        <v>6713674</v>
       </c>
       <c r="S12" t="n">
         <v>15</v>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>Betydelsefulla förekomster . inventering åt vasa vind</t>
+          <t>Måttlig förekomst . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1795,7 +1795,7 @@
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Anders Esplund, Pia Edfors, Enviro Planning</t>
+          <t>Pia Edfors, Enviro Planning</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
@@ -1805,7 +1805,7 @@
         <v>130965951</v>
       </c>
       <c r="B13" t="n">
-        <v>98930</v>
+        <v>98931</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>130965932</v>
       </c>
       <c r="B14" t="n">
-        <v>98930</v>
+        <v>98931</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>

--- a/artfynd/A 47294-2023 artfynd.xlsx
+++ b/artfynd/A 47294-2023 artfynd.xlsx
@@ -1598,32 +1598,32 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130965861</v>
+        <v>130965935</v>
       </c>
       <c r="B11" t="n">
-        <v>98931</v>
+        <v>79244</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>219790</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1633,10 +1633,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>497138</v>
+        <v>496969</v>
       </c>
       <c r="R11" t="n">
-        <v>6713448</v>
+        <v>6713674</v>
       </c>
       <c r="S11" t="n">
         <v>15</v>
@@ -1673,7 +1673,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>Betydelsefulla förekomster . inventering åt vasa vind</t>
+          <t>Måttlig förekomst . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1693,39 +1693,39 @@
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Anders Esplund, Pia Edfors, Enviro Planning</t>
+          <t>Pia Edfors, Enviro Planning</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130965935</v>
+        <v>130965861</v>
       </c>
       <c r="B12" t="n">
-        <v>79244</v>
+        <v>98931</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>219790</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1735,10 +1735,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>496969</v>
+        <v>497138</v>
       </c>
       <c r="R12" t="n">
-        <v>6713674</v>
+        <v>6713448</v>
       </c>
       <c r="S12" t="n">
         <v>15</v>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>Måttlig förekomst . inventering åt vasa vind</t>
+          <t>Betydelsefulla förekomster . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1795,7 +1795,7 @@
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Pia Edfors, Enviro Planning</t>
+          <t>Anders Esplund, Pia Edfors, Enviro Planning</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>

--- a/artfynd/A 47294-2023 artfynd.xlsx
+++ b/artfynd/A 47294-2023 artfynd.xlsx
@@ -1598,32 +1598,32 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130965935</v>
+        <v>130965861</v>
       </c>
       <c r="B11" t="n">
-        <v>79244</v>
+        <v>98931</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>219790</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1633,10 +1633,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>496969</v>
+        <v>497138</v>
       </c>
       <c r="R11" t="n">
-        <v>6713674</v>
+        <v>6713448</v>
       </c>
       <c r="S11" t="n">
         <v>15</v>
@@ -1673,7 +1673,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>Måttlig förekomst . inventering åt vasa vind</t>
+          <t>Betydelsefulla förekomster . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1693,39 +1693,39 @@
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Pia Edfors, Enviro Planning</t>
+          <t>Anders Esplund, Pia Edfors, Enviro Planning</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130965861</v>
+        <v>130965935</v>
       </c>
       <c r="B12" t="n">
-        <v>98931</v>
+        <v>79244</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>219790</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1735,10 +1735,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>497138</v>
+        <v>496969</v>
       </c>
       <c r="R12" t="n">
-        <v>6713448</v>
+        <v>6713674</v>
       </c>
       <c r="S12" t="n">
         <v>15</v>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>Betydelsefulla förekomster . inventering åt vasa vind</t>
+          <t>Måttlig förekomst . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1795,7 +1795,7 @@
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Anders Esplund, Pia Edfors, Enviro Planning</t>
+          <t>Pia Edfors, Enviro Planning</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>

--- a/artfynd/A 47294-2023 artfynd.xlsx
+++ b/artfynd/A 47294-2023 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>130965937</v>
       </c>
       <c r="B2" t="n">
-        <v>98931</v>
+        <v>98932</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         <v>130965950</v>
       </c>
       <c r="B3" t="n">
-        <v>98931</v>
+        <v>98932</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
         <v>130965952</v>
       </c>
       <c r="B4" t="n">
-        <v>98931</v>
+        <v>98932</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -989,7 +989,7 @@
         <v>130965930</v>
       </c>
       <c r="B5" t="n">
-        <v>98931</v>
+        <v>98932</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1091,7 +1091,7 @@
         <v>130965940</v>
       </c>
       <c r="B6" t="n">
-        <v>98931</v>
+        <v>98932</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1193,7 +1193,7 @@
         <v>130965938</v>
       </c>
       <c r="B7" t="n">
-        <v>98931</v>
+        <v>98932</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         <v>130965931</v>
       </c>
       <c r="B8" t="n">
-        <v>98931</v>
+        <v>98932</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         <v>130965953</v>
       </c>
       <c r="B9" t="n">
-        <v>98931</v>
+        <v>98932</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1499,7 +1499,7 @@
         <v>130965848</v>
       </c>
       <c r="B10" t="n">
-        <v>98931</v>
+        <v>98932</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1598,32 +1598,32 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130965861</v>
+        <v>130965935</v>
       </c>
       <c r="B11" t="n">
-        <v>98931</v>
+        <v>79245</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>219790</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1633,10 +1633,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>497138</v>
+        <v>496969</v>
       </c>
       <c r="R11" t="n">
-        <v>6713448</v>
+        <v>6713674</v>
       </c>
       <c r="S11" t="n">
         <v>15</v>
@@ -1673,7 +1673,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>Betydelsefulla förekomster . inventering åt vasa vind</t>
+          <t>Måttlig förekomst . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1693,39 +1693,39 @@
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Anders Esplund, Pia Edfors, Enviro Planning</t>
+          <t>Pia Edfors, Enviro Planning</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130965935</v>
+        <v>130965861</v>
       </c>
       <c r="B12" t="n">
-        <v>79244</v>
+        <v>98932</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>219790</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1735,10 +1735,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>496969</v>
+        <v>497138</v>
       </c>
       <c r="R12" t="n">
-        <v>6713674</v>
+        <v>6713448</v>
       </c>
       <c r="S12" t="n">
         <v>15</v>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>Måttlig förekomst . inventering åt vasa vind</t>
+          <t>Betydelsefulla förekomster . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1795,7 +1795,7 @@
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Pia Edfors, Enviro Planning</t>
+          <t>Anders Esplund, Pia Edfors, Enviro Planning</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
@@ -1805,7 +1805,7 @@
         <v>130965951</v>
       </c>
       <c r="B13" t="n">
-        <v>98931</v>
+        <v>98932</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>130965932</v>
       </c>
       <c r="B14" t="n">
-        <v>98931</v>
+        <v>98932</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>

--- a/artfynd/A 47294-2023 artfynd.xlsx
+++ b/artfynd/A 47294-2023 artfynd.xlsx
@@ -1598,32 +1598,32 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130965935</v>
+        <v>130965861</v>
       </c>
       <c r="B11" t="n">
-        <v>79245</v>
+        <v>98932</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>219790</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1633,10 +1633,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>496969</v>
+        <v>497138</v>
       </c>
       <c r="R11" t="n">
-        <v>6713674</v>
+        <v>6713448</v>
       </c>
       <c r="S11" t="n">
         <v>15</v>
@@ -1673,7 +1673,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>Måttlig förekomst . inventering åt vasa vind</t>
+          <t>Betydelsefulla förekomster . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1693,39 +1693,39 @@
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Pia Edfors, Enviro Planning</t>
+          <t>Anders Esplund, Pia Edfors, Enviro Planning</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130965861</v>
+        <v>130965935</v>
       </c>
       <c r="B12" t="n">
-        <v>98932</v>
+        <v>79245</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>219790</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1735,10 +1735,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>497138</v>
+        <v>496969</v>
       </c>
       <c r="R12" t="n">
-        <v>6713448</v>
+        <v>6713674</v>
       </c>
       <c r="S12" t="n">
         <v>15</v>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>Betydelsefulla förekomster . inventering åt vasa vind</t>
+          <t>Måttlig förekomst . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1795,7 +1795,7 @@
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Anders Esplund, Pia Edfors, Enviro Planning</t>
+          <t>Pia Edfors, Enviro Planning</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>

--- a/artfynd/A 47294-2023 artfynd.xlsx
+++ b/artfynd/A 47294-2023 artfynd.xlsx
@@ -1598,32 +1598,32 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130965861</v>
+        <v>130965935</v>
       </c>
       <c r="B11" t="n">
-        <v>98932</v>
+        <v>79245</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>219790</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1633,10 +1633,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>497138</v>
+        <v>496969</v>
       </c>
       <c r="R11" t="n">
-        <v>6713448</v>
+        <v>6713674</v>
       </c>
       <c r="S11" t="n">
         <v>15</v>
@@ -1673,7 +1673,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>Betydelsefulla förekomster . inventering åt vasa vind</t>
+          <t>Måttlig förekomst . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1693,39 +1693,39 @@
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Anders Esplund, Pia Edfors, Enviro Planning</t>
+          <t>Pia Edfors, Enviro Planning</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130965935</v>
+        <v>130965861</v>
       </c>
       <c r="B12" t="n">
-        <v>79245</v>
+        <v>98932</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>219790</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1735,10 +1735,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>496969</v>
+        <v>497138</v>
       </c>
       <c r="R12" t="n">
-        <v>6713674</v>
+        <v>6713448</v>
       </c>
       <c r="S12" t="n">
         <v>15</v>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>Måttlig förekomst . inventering åt vasa vind</t>
+          <t>Betydelsefulla förekomster . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1795,7 +1795,7 @@
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Pia Edfors, Enviro Planning</t>
+          <t>Anders Esplund, Pia Edfors, Enviro Planning</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>

--- a/artfynd/A 47294-2023 artfynd.xlsx
+++ b/artfynd/A 47294-2023 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>130965937</v>
       </c>
       <c r="B2" t="n">
-        <v>98932</v>
+        <v>98935</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         <v>130965950</v>
       </c>
       <c r="B3" t="n">
-        <v>98932</v>
+        <v>98935</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
         <v>130965952</v>
       </c>
       <c r="B4" t="n">
-        <v>98932</v>
+        <v>98935</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -986,10 +986,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130965930</v>
+        <v>130965940</v>
       </c>
       <c r="B5" t="n">
-        <v>98932</v>
+        <v>98935</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1021,10 +1021,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>496938</v>
+        <v>496969</v>
       </c>
       <c r="R5" t="n">
-        <v>6713359</v>
+        <v>6713529</v>
       </c>
       <c r="S5" t="n">
         <v>15</v>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Måttlig förekomst . inventering åt vasa vind</t>
+          <t>Betydelsefulla förekomster . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1081,17 +1081,17 @@
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Pia Edfors, Enviro Planning</t>
+          <t>Pia Edfors, Anders Esplund, Enviro Planning</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130965940</v>
+        <v>130965930</v>
       </c>
       <c r="B6" t="n">
-        <v>98932</v>
+        <v>98935</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1123,10 +1123,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>496969</v>
+        <v>496938</v>
       </c>
       <c r="R6" t="n">
-        <v>6713529</v>
+        <v>6713359</v>
       </c>
       <c r="S6" t="n">
         <v>15</v>
@@ -1163,7 +1163,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Betydelsefulla förekomster . inventering åt vasa vind</t>
+          <t>Måttlig förekomst . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Pia Edfors, Anders Esplund, Enviro Planning</t>
+          <t>Pia Edfors, Enviro Planning</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
@@ -1193,7 +1193,7 @@
         <v>130965938</v>
       </c>
       <c r="B7" t="n">
-        <v>98932</v>
+        <v>98935</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         <v>130965931</v>
       </c>
       <c r="B8" t="n">
-        <v>98932</v>
+        <v>98935</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         <v>130965953</v>
       </c>
       <c r="B9" t="n">
-        <v>98932</v>
+        <v>98935</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1499,7 +1499,7 @@
         <v>130965848</v>
       </c>
       <c r="B10" t="n">
-        <v>98932</v>
+        <v>98935</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1598,32 +1598,32 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130965935</v>
+        <v>130965861</v>
       </c>
       <c r="B11" t="n">
-        <v>79245</v>
+        <v>98935</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>219790</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1633,10 +1633,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>496969</v>
+        <v>497138</v>
       </c>
       <c r="R11" t="n">
-        <v>6713674</v>
+        <v>6713448</v>
       </c>
       <c r="S11" t="n">
         <v>15</v>
@@ -1673,7 +1673,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>Måttlig förekomst . inventering åt vasa vind</t>
+          <t>Betydelsefulla förekomster . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1693,39 +1693,39 @@
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Pia Edfors, Enviro Planning</t>
+          <t>Anders Esplund, Pia Edfors, Enviro Planning</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130965861</v>
+        <v>130965935</v>
       </c>
       <c r="B12" t="n">
-        <v>98932</v>
+        <v>79245</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>219790</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1735,10 +1735,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>497138</v>
+        <v>496969</v>
       </c>
       <c r="R12" t="n">
-        <v>6713448</v>
+        <v>6713674</v>
       </c>
       <c r="S12" t="n">
         <v>15</v>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>Betydelsefulla förekomster . inventering åt vasa vind</t>
+          <t>Måttlig förekomst . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1795,7 +1795,7 @@
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Anders Esplund, Pia Edfors, Enviro Planning</t>
+          <t>Pia Edfors, Enviro Planning</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
@@ -1805,7 +1805,7 @@
         <v>130965951</v>
       </c>
       <c r="B13" t="n">
-        <v>98932</v>
+        <v>98935</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>130965932</v>
       </c>
       <c r="B14" t="n">
-        <v>98932</v>
+        <v>98935</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
